--- a/AODV_DSR.xlsx
+++ b/AODV_DSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benny\Documents\git\NS3-Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -793,6 +793,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>AODV</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -851,6 +854,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>DSR</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1168,6 +1174,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2102,7 +2139,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
